--- a/PIV_Campaign_Processing/Fall_rect_win_moving_ROI/Observation_periods.xlsx
+++ b/PIV_Campaign_Processing/Fall_rect_win_moving_ROI/Observation_periods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ratzVKI\PIV_Campaign_Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\GitHub\ratzVKI\PIV_Campaign_Processing\Fall_rect_win_moving_ROI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D418B47F-D8B3-4776-9F48-8A3339B9F291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B09AF99-6BEF-4ABD-9637-3A8C52B0028B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9530F36F-8309-4E2A-8AEF-06175DE3F285}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9530F36F-8309-4E2A-8AEF-06175DE3F285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>F_h1_f1000_1_q</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Start of fall</t>
-  </si>
-  <si>
-    <t>Last good image (probably)</t>
   </si>
   <si>
     <t>Refering to index image</t>
@@ -516,29 +513,27 @@
   <dimension ref="B1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -546,16 +541,14 @@
         <v>1300</v>
       </c>
       <c r="D2" s="1">
-        <v>1564</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1651</v>
-      </c>
+        <v>1568</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -563,13 +556,11 @@
         <v>315</v>
       </c>
       <c r="D3" s="1">
-        <v>696</v>
-      </c>
-      <c r="E3" s="1">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -577,13 +568,11 @@
         <v>560</v>
       </c>
       <c r="D4" s="1">
-        <v>709</v>
-      </c>
-      <c r="E4" s="1">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -591,13 +580,11 @@
         <v>620</v>
       </c>
       <c r="D5" s="1">
-        <v>893</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -605,24 +592,22 @@
         <v>153</v>
       </c>
       <c r="D6" s="1">
-        <v>308</v>
-      </c>
-      <c r="E6" s="1">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -630,13 +615,11 @@
         <v>220</v>
       </c>
       <c r="D8" s="1">
-        <v>396</v>
-      </c>
-      <c r="E8" s="1">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -644,13 +627,11 @@
         <v>136</v>
       </c>
       <c r="D9" s="1">
-        <v>377</v>
-      </c>
-      <c r="E9" s="1">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -658,13 +639,11 @@
         <v>445</v>
       </c>
       <c r="D10" s="1">
-        <v>582</v>
-      </c>
-      <c r="E10" s="1">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -672,18 +651,16 @@
         <v>520</v>
       </c>
       <c r="D11" s="1">
-        <v>819</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -691,7 +668,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -699,7 +676,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -707,7 +684,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -715,7 +692,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -723,7 +700,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -731,7 +708,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -739,7 +716,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -747,7 +724,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -755,7 +732,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -763,7 +740,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -771,7 +748,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -779,7 +756,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -787,7 +764,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -795,7 +772,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -803,7 +780,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -811,7 +788,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -819,7 +796,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -827,7 +804,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -835,7 +812,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -843,7 +820,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -851,7 +828,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -859,7 +836,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -867,7 +844,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -875,7 +852,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -883,7 +860,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -891,7 +868,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>36</v>
       </c>
